--- a/xlsx_files/CM Senior.xlsx
+++ b/xlsx_files/CM Senior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -58,20 +58,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4B084"/>
-        <bgColor rgb="00F4B084"/>
       </patternFill>
     </fill>
   </fills>
@@ -114,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -126,17 +114,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -567,34 +549,20 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Communications for Development
+09:00-10:30
+room:-14</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Communications for Development
 09:00-10:30
 room:202</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Capstone Project
-09:00-10:30
-room:104</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Communications for Development
-09:00-10:30
-room:100</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Capstone Project
-09:00-10:30
-room:111</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -602,10 +570,8 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -613,10 +579,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -624,10 +588,8 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -635,10 +597,8 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="F10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -646,10 +606,8 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -671,6 +629,13 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Capstone Project
+11:00-12:30
+room:202</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -678,6 +643,7 @@
           <t>11:15</t>
         </is>
       </c>
+      <c r="C15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -685,6 +651,7 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="C16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -692,6 +659,7 @@
           <t>11:45</t>
         </is>
       </c>
+      <c r="C17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -699,6 +667,7 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="C18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -706,6 +675,7 @@
           <t>12:15</t>
         </is>
       </c>
+      <c r="C19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -755,6 +725,20 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>Local Development &amp; Digital Transformation
+14:00-15:30
+room:202</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Capstone Project
+14:00-15:30
+room:202</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -762,6 +746,8 @@
           <t>14:15</t>
         </is>
       </c>
+      <c r="C27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -769,6 +755,8 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="C28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -776,6 +764,8 @@
           <t>14:45</t>
         </is>
       </c>
+      <c r="C29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -783,6 +773,8 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="C30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -790,6 +782,8 @@
           <t>15:15</t>
         </is>
       </c>
+      <c r="C31" s="7" t="n"/>
+      <c r="F31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -811,18 +805,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Local Development &amp; Digital Transformation
 16:00-17:30
-room:204</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>Local Development &amp; Digital Transformation
-16:00-17:30
-room:100</t>
+room:104</t>
         </is>
       </c>
     </row>
@@ -832,8 +819,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="C35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
+      <c r="E35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -841,8 +827,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="C36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
+      <c r="E36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -850,8 +835,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="C37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
+      <c r="E37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -859,8 +843,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="C38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
+      <c r="E38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -868,8 +851,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="C39" s="8" t="n"/>
-      <c r="E39" s="8" t="n"/>
+      <c r="E39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1062,19 +1044,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="C26:C31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="C6:C11"/>
     <mergeCell ref="E34:E39"/>
-    <mergeCell ref="C6:C11"/>
     <mergeCell ref="F6:F11"/>
+    <mergeCell ref="C14:C19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
